--- a/hardware/IntelliModule-Alpha/IntelliModule-Alpha-BillOfMaterials.xlsx
+++ b/hardware/IntelliModule-Alpha/IntelliModule-Alpha-BillOfMaterials.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5851F3-F77A-476D-B1C1-4CE280B12D62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992D97A6-02F0-4260-A494-D3D5D0F21DE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw BOM Data" sheetId="1" r:id="rId1"/>
     <sheet name="BOM" sheetId="2" r:id="rId2"/>
+    <sheet name="DigiKey Order List" sheetId="3" r:id="rId3"/>
+    <sheet name="LCSC Order List" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="165">
   <si>
     <t>Comment</t>
   </si>
@@ -501,6 +503,27 @@
   </si>
   <si>
     <t>C114755</t>
+  </si>
+  <si>
+    <t>C138002</t>
+  </si>
+  <si>
+    <t>C79986</t>
+  </si>
+  <si>
+    <t>C8322</t>
+  </si>
+  <si>
+    <t>STM32F103RET6 Version (512K Flash)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Part Ref</t>
+  </si>
+  <si>
+    <t>P/N</t>
   </si>
 </sst>
 </file>
@@ -568,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -609,12 +632,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -897,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K19"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,11 +1615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E78FC2-A3E1-4959-884F-11794EAA8765}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1633,7 @@
     <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="10"/>
@@ -1617,8 +1642,8 @@
     <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1733,7 +1758,7 @@
       <c r="J6" s="10">
         <v>0.11</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1748,7 +1773,7 @@
       <c r="O6" s="10">
         <v>0.63139999999999996</v>
       </c>
-      <c r="P6" s="15"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1781,7 +1806,7 @@
       <c r="J7" s="10">
         <v>0.09</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1796,7 +1821,7 @@
       <c r="O7" s="10">
         <v>0.1804</v>
       </c>
-      <c r="P7" s="15"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1829,7 +1854,7 @@
       <c r="J8" s="10">
         <v>0.13</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1844,7 +1869,7 @@
       <c r="O8" s="10">
         <v>0.1804</v>
       </c>
-      <c r="P8" s="15"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1877,7 +1902,7 @@
       <c r="J9" s="10">
         <v>0.36</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>151</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1892,7 +1917,7 @@
       <c r="O9" s="10">
         <v>0.27060000000000001</v>
       </c>
-      <c r="P9" s="15"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1925,8 +1950,8 @@
       <c r="J10" s="10">
         <v>0.23452000000000001</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1959,8 +1984,8 @@
       <c r="J11" s="10">
         <v>0.66747999999999996</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1993,8 +2018,8 @@
       <c r="J12" s="10">
         <v>0.37884000000000001</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2027,8 +2052,8 @@
       <c r="J13" s="10">
         <v>0.12628</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2061,7 +2086,7 @@
       <c r="J14" s="10">
         <v>0.35</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>151</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -2076,7 +2101,7 @@
       <c r="O14" s="10">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2109,7 +2134,7 @@
       <c r="J15" s="10">
         <v>0.45</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>154</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2124,7 +2149,7 @@
       <c r="O15" s="10">
         <v>0.61336000000000002</v>
       </c>
-      <c r="P15" s="15"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:17" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2157,7 +2182,7 @@
       <c r="J16" s="10">
         <v>0.05</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -2172,7 +2197,7 @@
       <c r="O16" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="P16" s="15"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2205,7 +2230,7 @@
       <c r="J17" s="10">
         <v>0.05</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2220,7 +2245,7 @@
       <c r="O17" s="10">
         <v>0.23091</v>
       </c>
-      <c r="P17" s="15"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2253,7 +2278,7 @@
       <c r="J18" s="10">
         <v>0.05</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>148</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -2268,7 +2293,7 @@
       <c r="O18" s="10">
         <v>0.36080000000000001</v>
       </c>
-      <c r="P18" s="15"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2289,7 +2314,21 @@
       <c r="F19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="G19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2302,7 +2341,7 @@
       <c r="O19" s="10">
         <v>0.36080000000000001</v>
       </c>
-      <c r="P19" s="15"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2323,7 +2362,19 @@
       <c r="F20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="G20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.24592600000000001</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.24592600000000001</v>
+      </c>
+      <c r="K20" s="14"/>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2336,7 +2387,7 @@
       <c r="O20" s="10">
         <v>0.51414000000000004</v>
       </c>
-      <c r="P20" s="15"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2357,7 +2408,21 @@
       <c r="F21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2.7598400000000001</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2.7598400000000001</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2370,7 +2435,7 @@
       <c r="O21" s="10">
         <v>5.75</v>
       </c>
-      <c r="P21" s="15"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2391,20 +2456,20 @@
       <c r="F22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="10">
+      <c r="I22" s="10">
         <v>0.32472000000000001</v>
       </c>
-      <c r="O22" s="10">
+      <c r="J22" s="10">
         <v>0.32472000000000001</v>
       </c>
-      <c r="P22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2425,20 +2490,20 @@
       <c r="F23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="N23" s="10">
+      <c r="I23" s="10">
         <v>0.36981999999999998</v>
       </c>
-      <c r="O23" s="10">
+      <c r="J23" s="10">
         <v>0.36981999999999998</v>
       </c>
-      <c r="P23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
@@ -2450,7 +2515,7 @@
       </c>
       <c r="J25" s="11">
         <f>SUM(J6:J23)</f>
-        <v>3.0471200000000001</v>
+        <v>6.787426</v>
       </c>
       <c r="M25" s="2"/>
       <c r="O25" s="10"/>
@@ -2462,4 +2527,233 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4710C81-D63A-4427-AB96-C9359D37DEC2}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A8F462-C2CD-49E1-A3E6-9F6BA1A061E8}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>